--- a/exposan/metab_mock/data/_impact_items.xlsx
+++ b/exposan/metab_mock/data/_impact_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\metab_mock\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B05245-D885-4DBA-9977-FF4AB474343D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6983CC42-E81C-408E-9011-A7AF2534D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="9" xr2:uid="{2CC88CC3-B773-4655-8E02-4A9D676591A3}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{2CC88CC3-B773-4655-8E02-4A9D676591A3}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -152,9 +152,6 @@
     <t>pump_22kW</t>
   </si>
   <si>
-    <t>HDPE_pipes</t>
-  </si>
-  <si>
     <t>heat</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>ecoinvent 3.8</t>
+  </si>
+  <si>
+    <t>hdpe_pipes</t>
+  </si>
+  <si>
+    <t>ea</t>
   </si>
 </sst>
 </file>
@@ -2863,16 +2866,16 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2920,12 +2923,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3077,12 +3083,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3090,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3098,59 +3107,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -3166,38 +3181,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3218,10 +3233,10 @@
         <v>0.31844067923542863</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3242,10 +3257,10 @@
         <v>8.5368767420522559E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3258,10 +3273,10 @@
         <v>46.742932603631438</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3282,10 +3297,10 @@
         <v>21.160787621427001</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3306,10 +3321,10 @@
         <v>1.5453068306552311</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3330,10 +3345,10 @@
         <v>11642162.358833199</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3346,10 +3361,10 @@
         <v>0.11711758875496341</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -3362,10 +3377,10 @@
         <v>0.33054909538710009</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3386,10 +3401,10 @@
         <v>0.13635889907385179</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3402,10 +3417,10 @@
         <v>5.4201750043800817E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3426,10 +3441,10 @@
         <v>0.7357597875479932</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3450,10 +3465,10 @@
         <v>2.5092523426939781E-2</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3474,10 +3489,10 @@
         <v>0.1333158929891978</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3498,10 +3513,10 @@
         <v>7.729747923737719E-2</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -3522,10 +3537,10 @@
         <v>0.177057560966557</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3546,10 +3561,10 @@
         <v>0.46916640759150208</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3570,10 +3585,10 @@
         <v>0.10488643249509751</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3594,10 +3609,10 @@
         <v>0.1182400840285425</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3618,10 +3633,10 @@
         <v>0.1494855228169682</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3642,10 +3657,10 @@
         <v>0.28182026819226902</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3666,10 +3681,10 @@
         <v>0.47112208000392658</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -3682,10 +3697,10 @@
         <v>7.769973860128257E-2</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3706,10 +3721,10 @@
         <v>3.5496128163309923E-2</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3722,10 +3737,10 @@
         <v>0.34757670108633071</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3746,10 +3761,10 @@
         <v>0.180239316057307</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3770,10 +3785,10 @@
         <v>73.160872334967877</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3794,10 +3809,10 @@
         <v>4.4035360623386295E-3</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -3810,10 +3825,10 @@
         <v>0.13014360089953389</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -3826,10 +3841,10 @@
         <v>0.85457572715826635</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -3842,12 +3857,12 @@
         <v>111.08209324813841</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$L$5</f>
@@ -3866,12 +3881,12 @@
         <v>0.17813836460823076</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$L$5</f>
@@ -3890,12 +3905,12 @@
         <v>1.20707425973819E-3</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$L$5</f>
@@ -3914,12 +3929,12 @@
         <v>1.3766457380699589E-2</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$L$5</f>
@@ -3938,12 +3953,12 @@
         <v>1.5512875432275731E-3</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$L$5</f>
@@ -3962,12 +3977,12 @@
         <v>7.9729151123970485E-2</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$L$5</f>
@@ -3978,7 +3993,7 @@
         <v>2.1564767497220479E-2</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3992,38 +4007,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4044,10 +4059,10 @@
         <v>2.508518863485373E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4068,10 +4083,10 @@
         <v>9.6116298698812989E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4084,10 +4099,10 @@
         <v>3.0811986745389062</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4108,10 +4123,10 @@
         <v>1.0163964735698601</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4132,10 +4147,10 @@
         <v>0.1698970876981028</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4156,10 +4171,10 @@
         <v>1427643.621415674</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4172,10 +4187,10 @@
         <v>8.675075229211196E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4188,10 +4203,10 @@
         <v>3.5128570270090559E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4212,10 +4227,10 @@
         <v>1.521896418197302E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4228,10 +4243,10 @@
         <v>3.6243368374683951E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4252,10 +4267,10 @@
         <v>0.1935416620435623</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -4276,10 +4291,10 @@
         <v>8.3277032728490304E-3</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -4300,10 +4315,10 @@
         <v>1.121561618073757E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -4324,10 +4339,10 @@
         <v>5.8206521811178906E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -4348,10 +4363,10 @@
         <v>1.3237645096850119E-2</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -4372,10 +4387,10 @@
         <v>5.2143502817840658E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -4396,10 +4411,10 @@
         <v>1.310500711394603E-2</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -4420,10 +4435,10 @@
         <v>8.2474869389780534E-3</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4444,10 +4459,10 @@
         <v>1.2207581319197421E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4468,10 +4483,10 @@
         <v>1.9601917554173429E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -4492,10 +4507,10 @@
         <v>3.100509335716068E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -4508,10 +4523,10 @@
         <v>5.8766195773058433E-3</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -4532,10 +4547,10 @@
         <v>2.688267203999708E-3</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -4548,10 +4563,10 @@
         <v>2.4834726156618161E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -4572,10 +4587,10 @@
         <v>1.617726031270621E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -4596,10 +4611,10 @@
         <v>12.074183034055689</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -4620,10 +4635,10 @@
         <v>2.6921143959458984E-4</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4636,10 +4651,10 @@
         <v>7.4616009494021182E-3</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -4652,10 +4667,10 @@
         <v>0.14212227461096291</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -4668,12 +4683,12 @@
         <v>17.938025614823498</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$D$5</f>
@@ -4692,12 +4707,12 @@
         <v>1.3599714698103031E-2</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$D$5</f>
@@ -4716,12 +4731,12 @@
         <v>2.1557111259409809E-4</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$D$5</f>
@@ -4740,12 +4755,12 @@
         <v>9.8897652605322E-4</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$D$5</f>
@@ -4764,12 +4779,12 @@
         <v>9.1203845739551702E-5</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$D$5</f>
@@ -4788,12 +4803,12 @@
         <v>3.0734218698908128E-3</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$D$5</f>
@@ -4804,7 +4819,7 @@
         <v>1.8968986641433371E-3</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4818,38 +4833,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4870,10 +4885,10 @@
         <v>5.4057546042736853</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4894,10 +4909,10 @@
         <v>1.370759389808792</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4910,10 +4925,10 @@
         <v>872.99821596940717</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -4934,10 +4949,10 @@
         <v>381.71826042571172</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4958,10 +4973,10 @@
         <v>22.243292386793517</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -4982,10 +4997,10 @@
         <v>156578811.48842201</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4998,10 +5013,10 @@
         <v>2.289762187902463</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5014,10 +5029,10 @@
         <v>6.6971545942522166</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5038,10 +5053,10 @@
         <v>3.2692635152035332</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5054,10 +5069,10 @@
         <v>0.92048851801375076</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5078,10 +5093,10 @@
         <v>3.8463859603645592</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5102,10 +5117,10 @@
         <v>0.1688709129062175</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5126,10 +5141,10 @@
         <v>3.0025315372327088</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5150,10 +5165,10 @@
         <v>1.326807590309061</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -5174,10 +5189,10 @@
         <v>2.744984314653903</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5198,10 +5213,10 @@
         <v>8.3093636017746011</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -5222,10 +5237,10 @@
         <v>1.560587950266844</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -5246,10 +5261,10 @@
         <v>2.2345686019567381</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5270,10 +5285,10 @@
         <v>2.9867434448251342</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5294,10 +5309,10 @@
         <v>4.9334901248392322</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -5318,10 +5333,10 @@
         <v>7.5875684063117994</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -5334,10 +5349,10 @@
         <v>1.4362074990905109</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -5358,10 +5373,10 @@
         <v>0.64723677897337217</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -5374,10 +5389,10 @@
         <v>5.7714418558232783</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -5398,10 +5413,10 @@
         <v>2.7385887276789171</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -5422,10 +5437,10 @@
         <v>786.179227710757</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -5446,10 +5461,10 @@
         <v>5.1929382478585501E-2</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -5462,10 +5477,10 @@
         <v>2.079392372280477</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5478,10 +5493,10 @@
         <v>9.2510249269176565</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5494,12 +5509,12 @@
         <v>1283.1037262435941</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$E$5</f>
@@ -5518,12 +5533,12 @@
         <v>3.2394560367632619</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$E$5</f>
@@ -5542,12 +5557,12 @@
         <v>3.6696960542741602E-2</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$E$5</f>
@@ -5566,12 +5581,12 @@
         <v>0.43703211526343022</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$E$5</f>
@@ -5590,12 +5605,12 @@
         <v>8.5069365881744866E-2</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$E$5</f>
@@ -5614,12 +5629,12 @@
         <v>0.54420433877152397</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$E$5</f>
@@ -5630,7 +5645,7 @@
         <v>0.49429163710241453</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -5644,38 +5659,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5696,10 +5711,10 @@
         <v>234.0579121859308</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5720,10 +5735,10 @@
         <v>17.148693210287579</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5736,10 +5751,10 @@
         <v>12191.57717883063</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5760,10 +5775,10 @@
         <v>2321.5620129348181</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5784,10 +5799,10 @@
         <v>331.98118764557734</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5808,10 +5823,10 @@
         <v>26067081460.813751</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -5824,10 +5839,10 @@
         <v>28.431628192457051</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5840,10 +5855,10 @@
         <v>166.8803038722661</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5864,10 +5879,10 @@
         <v>31.37684009508553</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5880,10 +5895,10 @@
         <v>13.67229449779825</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5904,10 +5919,10 @@
         <v>5067.9142035823943</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -5928,10 +5943,10 @@
         <v>70.135302222458975</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -5952,10 +5967,10 @@
         <v>26.629170500705921</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -5976,10 +5991,10 @@
         <v>25.012181205589421</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -6000,10 +6015,10 @@
         <v>50.724241846065283</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -6024,10 +6039,10 @@
         <v>37.960671101590172</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -6048,10 +6063,10 @@
         <v>84.44063385829665</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -6072,10 +6087,10 @@
         <v>18.30665843016348</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -6096,10 +6111,10 @@
         <v>43.78226819596037</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -6120,10 +6135,10 @@
         <v>73.519545802974307</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -6144,10 +6159,10 @@
         <v>96.509709120150092</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -6160,10 +6175,10 @@
         <v>10.22654005567577</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -6184,10 +6199,10 @@
         <v>5.5172956964238198</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -6200,10 +6215,10 @@
         <v>73.445618295573496</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -6224,10 +6239,10 @@
         <v>62.188207831399517</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -6248,10 +6263,10 @@
         <v>280537.78284646687</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -6272,10 +6287,10 @@
         <v>0.88312723558218897</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -6288,10 +6303,10 @@
         <v>87.020151385270964</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -6304,10 +6319,10 @@
         <v>3189.5736873935762</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -6320,12 +6335,12 @@
         <v>1573301.7234750569</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$F$5</f>
@@ -6344,12 +6359,12 @@
         <v>58.132305556163487</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$F$5</f>
@@ -6368,12 +6383,12 @@
         <v>8.0022340598958866E-2</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$F$5</f>
@@ -6392,12 +6407,12 @@
         <v>13.60079533747995</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$F$5</f>
@@ -6416,12 +6431,12 @@
         <v>0.23893294090878531</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$F$5</f>
@@ -6440,12 +6455,12 @@
         <v>5.3821977665002967</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$F$5</f>
@@ -6456,7 +6471,7 @@
         <v>2.1873279969190809</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6470,38 +6485,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6522,10 +6537,10 @@
         <v>1.6492257512791111E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6546,10 +6561,10 @@
         <v>3.9299328830739106E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6562,10 +6577,10 @@
         <v>2.863262080404763</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6586,10 +6601,10 @@
         <v>0.43633611623678642</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6610,10 +6625,10 @@
         <v>0.10733567389888519</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6634,10 +6649,10 @@
         <v>1218632.638544189</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -6650,10 +6665,10 @@
         <v>5.0150967421848987E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -6666,10 +6681,10 @@
         <v>2.108166734939244E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -6690,10 +6705,10 @@
         <v>1.6024612036162959E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6706,10 +6721,10 @@
         <v>3.9774450266166304E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -6730,10 +6745,10 @@
         <v>0.14429515656081721</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -6754,10 +6769,10 @@
         <v>2.2359984317725139E-3</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6778,10 +6793,10 @@
         <v>2.1732321939085909E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -6802,10 +6817,10 @@
         <v>3.6587765281183792E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -6826,10 +6841,10 @@
         <v>8.4463805146574623E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -6850,10 +6865,10 @@
         <v>2.6736671732324181E-2</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -6874,10 +6889,10 @@
         <v>9.3988742287740082E-3</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -6898,10 +6913,10 @@
         <v>3.3907096563938139E-3</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -6922,10 +6937,10 @@
         <v>7.0516525930013714E-3</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -6946,10 +6961,10 @@
         <v>2.162909183849689E-2</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -6970,10 +6985,10 @@
         <v>2.6349629632715539E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -6986,10 +7001,10 @@
         <v>4.4382247791932977E-3</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -7010,10 +7025,10 @@
         <v>2.925419839026598E-3</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -7026,10 +7041,10 @@
         <v>1.7387778736338899E-2</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -7050,10 +7065,10 @@
         <v>1.0861454907491779E-2</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -7074,10 +7089,10 @@
         <v>9.7183616347407309</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -7098,10 +7113,10 @@
         <v>2.5554054689306486E-4</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -7114,10 +7129,10 @@
         <v>7.7820069101961998E-3</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -7130,10 +7145,10 @@
         <v>0.10531292230566761</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -7146,12 +7161,12 @@
         <v>13.28577068400573</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$G$5</f>
@@ -7170,12 +7185,12 @@
         <v>7.3022245070233967E-3</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$G$5</f>
@@ -7194,12 +7209,12 @@
         <v>2.9407559956761201E-5</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$G$5</f>
@@ -7218,12 +7233,12 @@
         <v>3.180377599623775E-3</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$G$5</f>
@@ -7242,12 +7257,12 @@
         <v>3.3027719471892857E-5</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$G$5</f>
@@ -7266,12 +7281,12 @@
         <v>7.2923871704241535E-4</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$G$5</f>
@@ -7282,7 +7297,7 @@
         <v>2.6777672137774021E-4</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -7296,38 +7311,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7348,10 +7363,10 @@
         <v>1.151169013567885E-5</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7372,10 +7387,10 @@
         <v>8.6393237172769242E-8</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -7388,10 +7403,10 @@
         <v>2.4277485304550719E-4</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7412,10 +7427,10 @@
         <v>1.4028598068183219E-5</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7436,10 +7451,10 @@
         <v>6.0278957184541497E-6</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -7460,10 +7475,10 @@
         <v>84.540025391624425</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7476,10 +7491,10 @@
         <v>1.4544940936056641E-7</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -7492,10 +7507,10 @@
         <v>4.4273250866850481E-7</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7516,10 +7531,10 @@
         <v>1.586150041613047E-7</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7532,10 +7547,10 @@
         <v>6.1014276072633302E-8</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -7556,10 +7571,10 @@
         <v>2.0088622183042249E-6</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -7580,10 +7595,10 @@
         <v>5.5208317448971632E-8</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -7604,10 +7619,10 @@
         <v>1.4441433573328429E-7</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -7628,10 +7643,10 @@
         <v>1.130980386415044E-7</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -7652,10 +7667,10 @@
         <v>2.4446444493960632E-7</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -7676,10 +7691,10 @@
         <v>4.1638050250526378E-7</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -7700,10 +7715,10 @@
         <v>2.251666210025006E-7</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -7724,10 +7739,10 @@
         <v>1.191946735780623E-7</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -7748,10 +7763,10 @@
         <v>2.1189309801793999E-7</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -7772,10 +7787,10 @@
         <v>3.3556961220739618E-7</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -7796,10 +7811,10 @@
         <v>4.8907356521517807E-7</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -7812,10 +7827,10 @@
         <v>8.1759094072839719E-8</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -7836,10 +7851,10 @@
         <v>4.2648309451572602E-8</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -7852,10 +7867,10 @@
         <v>5.5485058431763002E-7</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -7876,10 +7891,10 @@
         <v>2.2588683199482329E-7</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -7900,10 +7915,10 @@
         <v>7.5704899111637904E-4</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -7924,10 +7939,10 @@
         <v>4.7321107574691261E-9</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -7940,10 +7955,10 @@
         <v>2.5459665737157399E-6</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -7956,10 +7971,10 @@
         <v>2.012121634216439E-5</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -7972,12 +7987,12 @@
         <v>2.4889589639819419E-3</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$H$5</f>
@@ -7996,12 +8011,12 @@
         <v>2.4226448258140734E-7</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$H$5</f>
@@ -8020,12 +8035,12 @@
         <v>5.0923478734806955E-10</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$H$5</f>
@@ -8044,12 +8059,12 @@
         <v>3.9408784505528351E-8</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$H$5</f>
@@ -8068,12 +8083,12 @@
         <v>1.624468008608522E-9</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$H$5</f>
@@ -8092,12 +8107,12 @@
         <v>4.6919873425095643E-8</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$H$5</f>
@@ -8108,7 +8123,7 @@
         <v>2.376722084074359E-8</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -8122,38 +8137,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8174,10 +8189,10 @@
         <v>2.9674173787391831E-6</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8198,10 +8213,10 @@
         <v>2.8233714722544502E-7</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8214,10 +8229,10 @@
         <v>1.78399867353261E-4</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8238,10 +8253,10 @@
         <v>5.7409862290089733E-5</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8262,10 +8277,10 @@
         <v>9.227342289152278E-6</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -8286,10 +8301,10 @@
         <v>290.88920092825509</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -8302,10 +8317,10 @@
         <v>4.475422451619449E-7</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -8318,10 +8333,10 @@
         <v>2.636101200242338E-6</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -8342,10 +8357,10 @@
         <v>5.1282008766015726E-7</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -8358,10 +8373,10 @@
         <v>1.876759516273198E-7</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -8382,10 +8397,10 @@
         <v>5.2263451479753083E-5</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -8406,10 +8421,10 @@
         <v>1.1263306451138381E-6</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -8430,10 +8445,10 @@
         <v>4.5702890990877918E-7</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -8454,10 +8469,10 @@
         <v>3.7698510550520721E-7</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -8478,10 +8493,10 @@
         <v>8.3741838603636462E-7</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -8502,10 +8517,10 @@
         <v>1.3938998615257031E-6</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -8526,10 +8541,10 @@
         <v>1.3871294988058359E-6</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -8550,10 +8565,10 @@
         <v>2.9120514163880538E-7</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -8574,10 +8589,10 @@
         <v>7.0540134456287082E-7</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -8598,10 +8613,10 @@
         <v>1.0837827260925491E-6</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -8622,10 +8637,10 @@
         <v>1.607590411345561E-6</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -8638,10 +8653,10 @@
         <v>2.5751051551934268E-7</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -8662,10 +8677,10 @@
         <v>1.4053484823488889E-7</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -8678,10 +8693,10 @@
         <v>1.4009221001058801E-6</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -8702,10 +8717,10 @@
         <v>1.054900687956763E-6</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -8726,10 +8741,10 @@
         <v>2.9541568739005798E-3</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -8750,10 +8765,10 @@
         <v>1.4023261216692379E-8</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -8766,10 +8781,10 @@
         <v>5.8805234371113874E-7</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -8782,10 +8797,10 @@
         <v>3.5992972430286133E-5</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -8798,12 +8813,12 @@
         <v>4.4861706195940066E-3</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$I$5</f>
@@ -8822,12 +8837,12 @@
         <v>8.017361909855947E-7</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$I$5</f>
@@ -8846,12 +8861,12 @@
         <v>1.673514710058869E-9</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$I$5</f>
@@ -8870,12 +8885,12 @@
         <v>1.3688018966819749E-7</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$I$5</f>
@@ -8894,12 +8909,12 @@
         <v>2.9201099091397648E-9</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$I$5</f>
@@ -8918,12 +8933,12 @@
         <v>1.3080102912909519E-7</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$I$5</f>
@@ -8934,7 +8949,7 @@
         <v>4.2918957297913371E-8</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -8948,38 +8963,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9000,10 +9015,10 @@
         <v>2.6269401232071878E-7</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9024,10 +9039,10 @@
         <v>8.5592959174193769E-8</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9040,10 +9055,10 @@
         <v>5.5281726060363289E-5</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9064,10 +9079,10 @@
         <v>2.32729600635565E-5</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9088,10 +9103,10 @@
         <v>7.3098866047610559E-7</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9112,10 +9127,10 @@
         <v>8.9289543367295536</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -9128,10 +9143,10 @@
         <v>3.9017808879124429E-8</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -9144,10 +9159,10 @@
         <v>2.6471232081379171E-7</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -9168,10 +9183,10 @@
         <v>1.2381466326937691E-7</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -9184,10 +9199,10 @@
         <v>2.5510452758619319E-7</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -9208,10 +9223,10 @@
         <v>2.4095734342180028E-7</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -9232,10 +9247,10 @@
         <v>1.870500675463139E-8</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -9256,10 +9271,10 @@
         <v>4.4280410136608898E-7</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -9280,10 +9295,10 @@
         <v>4.3136437991636299E-7</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -9304,10 +9319,10 @@
         <v>1.888263267031637E-7</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -9328,10 +9343,10 @@
         <v>1.4034406376134719E-7</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -9352,10 +9367,10 @@
         <v>3.7386276074167909E-7</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -9376,10 +9391,10 @@
         <v>4.7177671863427162E-8</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -9400,10 +9415,10 @@
         <v>1.1890089445524639E-6</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -9424,10 +9439,10 @@
         <v>7.5231719300365112E-7</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -9448,10 +9463,10 @@
         <v>1.1124640481424631E-6</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -9464,10 +9479,10 @@
         <v>1.110118392144061E-7</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -9488,10 +9503,10 @@
         <v>2.4806730531204211E-8</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -9504,10 +9519,10 @@
         <v>1.442540878762118E-5</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -9528,10 +9543,10 @@
         <v>2.4858565251623972E-7</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -9552,10 +9567,10 @@
         <v>4.3230717954308578E-5</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -9576,10 +9591,10 @@
         <v>3.5371175688638046E-9</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -9592,10 +9607,10 @@
         <v>1.2438696420158089E-7</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -9608,10 +9623,10 @@
         <v>5.2616424627118548E-7</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -9624,12 +9639,12 @@
         <v>7.5177137059215758E-5</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$J$5</f>
@@ -9648,12 +9663,12 @@
         <v>1.2504378658854992E-7</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$J$5</f>
@@ -9672,12 +9687,12 @@
         <v>1.3212134489535319E-8</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$J$5</f>
@@ -9696,12 +9711,12 @@
         <v>2.4327145351589099E-8</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$J$5</f>
@@ -9720,12 +9735,12 @@
         <v>1.350508769921295E-8</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$J$5</f>
@@ -9744,12 +9759,12 @@
         <v>1.182734958872205E-7</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$J$5</f>
@@ -9760,7 +9775,7 @@
         <v>2.9699360068162721E-7</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -9774,38 +9789,38 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9826,10 +9841,10 @@
         <v>1.538950384396132E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9850,10 +9865,10 @@
         <v>1.6240034226810661E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9866,10 +9881,10 @@
         <v>0.84332728533332069</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9890,10 +9905,10 @@
         <v>0.15157516107722699</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9914,10 +9929,10 @@
         <v>3.1549033516729864E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9938,10 +9953,10 @@
         <v>265378.68784329097</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -9954,10 +9969,10 @@
         <v>1.839178599730835E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -9970,10 +9985,10 @@
         <v>4.8441449558429888E-3</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -9994,10 +10009,10 @@
         <v>1.6419413125642289E-3</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -10010,10 +10025,10 @@
         <v>5.0057798610174615E-4</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -10034,10 +10049,10 @@
         <v>2.0256816257093201E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -10058,10 +10073,10 @@
         <v>6.5604390682197594E-4</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -10082,10 +10097,10 @@
         <v>1.572298904640262E-3</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -10106,10 +10121,10 @@
         <v>1.326931751200264E-3</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -10130,10 +10145,10 @@
         <v>3.3362119524061049E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -10154,10 +10169,10 @@
         <v>7.0857398484638614E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -10178,10 +10193,10 @@
         <v>2.13844491176108E-3</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -10202,10 +10217,10 @@
         <v>9.9657434587186746E-4</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -10226,10 +10241,10 @@
         <v>2.4781622384633692E-3</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -10250,10 +10265,10 @@
         <v>4.0807987113399878E-3</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -10274,10 +10289,10 @@
         <v>6.5360478856607354E-3</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -10290,10 +10305,10 @@
         <v>1.853397741651893E-3</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -10314,10 +10329,10 @@
         <v>8.6980532978985989E-4</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -10330,10 +10345,10 @@
         <v>5.3729499992496103E-3</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -10354,10 +10369,10 @@
         <v>2.7351943496433479E-3</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -10378,10 +10393,10 @@
         <v>1.8321600935458431</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -10402,10 +10417,10 @@
         <v>1.6150212199867313E-4</v>
       </c>
       <c r="F28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -10418,10 +10433,10 @@
         <v>3.2060356226719391E-3</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -10434,10 +10449,10 @@
         <v>2.9716488363209219E-2</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -10450,12 +10465,12 @@
         <v>3.7990966488767199</v>
       </c>
       <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>34</v>
       </c>
       <c r="B32" t="str">
         <f>[1]exported!$K$5</f>
@@ -10474,12 +10489,12 @@
         <v>2.3629938327075339E-3</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="str">
         <f>[1]exported!$K$5</f>
@@ -10498,12 +10513,12 @@
         <v>2.113675578376966E-5</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="str">
         <f>[1]exported!$K$5</f>
@@ -10522,12 +10537,12 @@
         <v>1.2512997446476621E-3</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="str">
         <f>[1]exported!$K$5</f>
@@ -10546,12 +10561,12 @@
         <v>1.5159694386538979E-5</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="str">
         <f>[1]exported!$K$5</f>
@@ -10570,12 +10585,12 @@
         <v>3.4350296170614401E-4</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="str">
         <f>[1]exported!$K$5</f>
@@ -10586,7 +10601,7 @@
         <v>1.539639086009757E-4</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
